--- a/reference_list.xlsx
+++ b/reference_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="343">
   <si>
     <t>A Class-Driven Approach Based on Long Short-Term Memory Networks for Electricity Price Scenario Generation and Reduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,22 +140,12 @@
     <t>Chance-Constrained Outage Scheduling Using a Machine Learning Proxy</t>
   </si>
   <si>
-    <t>Dalal, G.
-Gilboa, E.
-Mannor, S.
-Wehenkel, L.</t>
-  </si>
-  <si>
     <t>IEEE Transactions on Power Systems</t>
   </si>
   <si>
     <t>SHAPES: A novel approach for learning search heuristics in under-constrained optimization problems</t>
   </si>
   <si>
-    <t>Doan, K. P. V.
-Wong, K. P.</t>
-  </si>
-  <si>
     <t>IEEE Transactions on Knowledge and Data Engineering</t>
   </si>
   <si>
@@ -186,11 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Meng, F. L.
-Zeng, X. J.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>An Optimal and Learning-Based Demand Response and Home Energy Management System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,13 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reynolds, J.
-Ahmad, M. W.
-Rezgui, Y.
-Hippolyte, J. L.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model predictive control with adaptive machine-learning-based model for building energy efficiency and comfort optimization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,26 +724,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tian, H.
-Lu, Z. W.
-Wang, X.
-Zhang, X. L.
-Huang, Y.
-Tian, G. Y.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Applied Energy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Xu, B.
-Rathod, D.
-Yebi, A.
-Filipi, Z.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[55]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -874,214 +836,487 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Real-time realization of Dynamic Programming using machine learning methods for IC engine waste heat recovery system power optimization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double Deep Q-Learning-Based Distributed Operation of Battery Energy Storage System Considering Uncertainties</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks for Automatic State-Time Feature Extraction in Reinforcement Learning Applied to Residential Load Control</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A length ratio based neural network energy management strategy for online control of plug-in hybrid electric city bus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safe Off-policy Deep Reinforcement Learning Algorithm for Volt-VAR Control in Power Distribution Systems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Period and Multi-Spatial Equilibrium Analysis in Imperfect Electricity Markets: A Novel Multi-Agent Deep Reinforcement Learning Approach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed reinforcement learning to coordinate current sharing and voltage restoration for islanded DC microgrid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demand Response for Home Energy Management using Reinforcement Learning and Artificial Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Particle Swarm Optimization Method for Power System Dynamic Security Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Bayesian Learning based Scheme for Online Dynamic Security Assessment and Preventive Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Supervised-Learning-Based Strategy for Optimal Demand Response of an HVAC System in a Multi-Zone Office Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity Markets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal Dispatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Flow Calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Flow Calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[41]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journals/Conferences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application Scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal Control Via Neural Networks: A Convex Approach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 International Conference on Learning Representations (ICLR)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y. Chen, Y. Shi, and B. Zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditional GAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generative Adversarial Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditional Generative Adversarial Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key Technologies (Full Name)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key Technologies (Abbr.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM-RNN</t>
+  </si>
+  <si>
+    <t>A feedforward neural network based indoor-climate control framework for thermal comfort and energy saving in buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLFF-ANN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Short Term Memory Recurrent Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Layered Feed Forward Artificial Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-LSTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-modal Long Short-Term Memory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Theoretic Machine Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Multi-Timescale Data-Driven Approach to Enhance Distribution System Observability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistical Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN, DRL</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network, Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>DQN</t>
+  </si>
+  <si>
+    <t>Deep Q Network</t>
+  </si>
+  <si>
+    <t>DRL</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Double Deep Q Network</t>
+  </si>
+  <si>
+    <t>Fuzzy Q-learning</t>
+  </si>
+  <si>
+    <t>Multi-agent Deep Reinforcement learning</t>
+  </si>
+  <si>
+    <t>Distributed RL</t>
+  </si>
+  <si>
+    <t>Distributed Reinforcement Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchically Correlated Equilibrium Q-learning </t>
+  </si>
+  <si>
+    <t>Multi-agent RL</t>
+  </si>
+  <si>
+    <t>Multi-agent Reinforcement learning</t>
+  </si>
+  <si>
+    <t>Safe Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>DNN</t>
+  </si>
+  <si>
+    <t>Deep Neural Network</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network</t>
+  </si>
+  <si>
+    <t>Input Convex Recurrent Neural Network</t>
+  </si>
+  <si>
+    <t>DP, ML</t>
+  </si>
+  <si>
+    <t>Dynamic Programming, Machine Learning</t>
+  </si>
+  <si>
     <t>Data-Driven Learning-Based Optimization for Distribution System State Estimation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Real-time realization of Dynamic Programming using machine learning methods for IC engine waste heat recovery system power optimization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double Deep Q-Learning-Based Distributed Operation of Battery Energy Storage System Considering Uncertainties</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convolutional Neural Networks for Automatic State-Time Feature Extraction in Reinforcement Learning Applied to Residential Load Control</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A length ratio based neural network energy management strategy for online control of plug-in hybrid electric city bus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safe Off-policy Deep Reinforcement Learning Algorithm for Volt-VAR Control in Power Distribution Systems</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multi-Period and Multi-Spatial Equilibrium Analysis in Imperfect Electricity Markets: A Novel Multi-Agent Deep Reinforcement Learning Approach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distributed reinforcement learning to coordinate current sharing and voltage restoration for islanded DC microgrid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demand Response for Home Energy Management using Reinforcement Learning and Artificial Neural Network</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Particle Swarm Optimization Method for Power System Dynamic Security Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Bayesian Learning based Scheme for Online Dynamic Security Assessment and Preventive Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Supervised-Learning-Based Strategy for Optimal Demand Response of an HVAC System in a Multi-Zone Office Building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ANN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple Stepwise Linear Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervised Learning, Transfer Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL, TL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAE, DNN, CNN</t>
+  </si>
+  <si>
+    <t>Deep Auto-Encoder, Deep Neural Network, Convolutional Neural Network</t>
+  </si>
+  <si>
+    <t>Clustering, LSTM-RNN</t>
+  </si>
+  <si>
+    <t>Clustering, Long Short Term Memory-Recurrent Neural Network</t>
+  </si>
+  <si>
+    <t>DAE, RBM</t>
+  </si>
+  <si>
+    <t>Deep Auto-Encoder, Restricted Boltzmann Machine</t>
+  </si>
+  <si>
+    <t>DAN, DT</t>
+  </si>
+  <si>
+    <t>Deep Autoencoder Network, Decision Tree</t>
+  </si>
+  <si>
+    <t>Clustering, Multi-Time-Scale Learning, Recursive Bayesian Learning</t>
+  </si>
+  <si>
+    <t>GAN, ELM, RVFL</t>
+  </si>
+  <si>
+    <t>Generative Adversarial Network, Extreme Machine Learning, Random Vector Functional Link Networks</t>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k-Nearest Neighbors, support vector machines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kNN, SVM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Neural Network, Decision Tree, Random Forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANN, DT, RF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heuristic Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k-Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>kNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fully Connected Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oblique Decision Tree</t>
+  </si>
+  <si>
+    <t>ODT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feed Forward Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-Propagation Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multilayer Perceptron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Artificial Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synergistic Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radial Basis Function Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayesian Neural Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extreme Learning Machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A Learning-Based Power Management Method for Networked Microgrids Under Incomplete Information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Electricity Markets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scenario Generation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Identification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Planning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimal Dispatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dynamic Security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Flow Calculation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Flow Calculation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[41]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Journals/Conferences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application Scenario</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimal Control Via Neural Networks: A Convex Approach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019 International Conference on Learning Representations (ICLR)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y. Chen, Y. Shi, and B. Zhang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conditional GAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generative Adversarial Network</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conditional Generative Adversarial Network</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key Technologies (Full Name)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key Technologies (Abbr.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSTM-RNN</t>
-  </si>
-  <si>
-    <t>A feedforward neural network based indoor-climate control framework for thermal comfort and energy saving in buildings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLFF-ANN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long Short Term Memory Recurrent Neural Network</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Layered Feed Forward Artificial Neural Network</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Artificial Neural Network</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M-LSTM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multi-modal Long Short-Term Memory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITML</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information Theoretic Machine Learning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Multi-Timescale Data-Driven Approach to Enhance Distribution System Observability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistical Learning</t>
+    <t>Bi-level Reinforcement Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiRL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1089,433 +1324,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DAE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DNN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CNN</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Deep Auto-Encoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Deep Neural Network</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Convolutional Neural Network</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Clustering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LSTM-RNN</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Clustering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Long Short Term Memory-Recurrent Neural Network</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DAE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RBM</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Deep Auto-Encoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Restricted Boltzmann Machine</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Deep Autoencoder Network</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Decision Tree</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Clustering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MTSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RBL</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Clustering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Multi-Time-Scale Learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Recursive Bayesian Learning</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ELM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RVFL</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Generative Adversarial Network</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Extreme Machine Learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Random Vector Functional Link Networks</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>RNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doan, K. P. V. and Wong, K. P.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dalal, G., Gilboa, E., Mannor, S. and Wehenkel, L.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tian, H., Lu, Z. W., Wang, X., Zhang, X. L., Huang, Y. and Tian, G. Y.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu, B., Rathod, D., Yebi, A. and Filipi, Z.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meng, F. L. and Zeng, X. J.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reynolds, J., Ahmad, M. W., Rezgui, Y. and Hippolyte, J. L.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1552,13 +1393,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1622,58 +1456,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1961,10 +1804,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1972,57 +1815,57 @@
     <col min="1" max="1" width="8.625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="10" customWidth="1"/>
     <col min="5" max="5" width="6.875" style="12" customWidth="1"/>
     <col min="6" max="6" width="19.625" style="16" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="12" customWidth="1"/>
     <col min="8" max="8" width="21.375" style="9" customWidth="1"/>
     <col min="9" max="9" width="19.625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="52.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="52.5" style="18" customWidth="1"/>
     <col min="11" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E2" s="5">
         <v>2020</v>
@@ -2031,122 +1874,126 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5">
         <v>2018</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>244</v>
+        <v>97</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" s="5">
         <v>2020</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>245</v>
+        <v>97</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E5" s="5">
         <v>2019</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>267</v>
+        <v>97</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E6" s="5">
         <v>2018</v>
@@ -2155,30 +2002,30 @@
         <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>269</v>
+        <v>97</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E7" s="5">
         <v>2017</v>
@@ -2187,62 +2034,62 @@
         <v>11</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>264</v>
+        <v>97</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E8" s="5">
         <v>2020</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>250</v>
+        <v>97</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E9" s="5">
         <v>2019</v>
@@ -2251,30 +2098,30 @@
         <v>6</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>252</v>
+        <v>97</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5">
         <v>2013</v>
@@ -2283,30 +2130,30 @@
         <v>5</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>254</v>
+        <v>97</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E11" s="5">
         <v>2018</v>
@@ -2315,30 +2162,30 @@
         <v>9</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>254</v>
+        <v>97</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5">
         <v>2019</v>
@@ -2347,30 +2194,30 @@
         <v>27</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>262</v>
+        <v>97</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E13" s="5">
         <v>2019</v>
@@ -2379,30 +2226,30 @@
         <v>27</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>257</v>
+        <v>97</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E14" s="5">
         <v>2019</v>
@@ -2411,30 +2258,30 @@
         <v>27</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>271</v>
+        <v>97</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E15" s="5">
         <v>2020</v>
@@ -2443,30 +2290,30 @@
         <v>27</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>259</v>
+        <v>97</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="5">
         <v>2019</v>
@@ -2475,150 +2322,158 @@
         <v>27</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>273</v>
+        <v>97</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E17" s="5">
         <v>2019</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>275</v>
+        <v>97</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E18" s="5">
         <v>2019</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>277</v>
+        <v>97</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E19" s="5">
         <v>2019</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E20" s="5">
         <v>2019</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E21" s="5">
         <v>2020</v>
@@ -2627,54 +2482,62 @@
         <v>27</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E22" s="5">
         <v>2019</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E23" s="5">
         <v>2019</v>
@@ -2683,194 +2546,222 @@
         <v>27</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E24" s="5">
         <v>2020</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E25" s="5">
         <v>2000</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E26" s="5">
         <v>2019</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E27" s="5">
         <v>2015</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="E28" s="5">
         <v>1997</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>29</v>
+        <v>338</v>
       </c>
       <c r="E29" s="5">
         <v>2019</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E30" s="5">
         <v>2018</v>
@@ -2879,26 +2770,30 @@
         <v>21</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E31" s="5">
         <v>2020</v>
@@ -2907,26 +2802,30 @@
         <v>16</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E32" s="5">
         <v>2019</v>
@@ -2935,23 +2834,27 @@
         <v>21</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>22</v>
@@ -2963,26 +2866,30 @@
         <v>21</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E34" s="5">
         <v>2020</v>
@@ -2991,26 +2898,30 @@
         <v>16</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E35" s="5">
         <v>2019</v>
@@ -3019,26 +2930,30 @@
         <v>18</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E36" s="5">
         <v>2019</v>
@@ -3047,26 +2962,30 @@
         <v>24</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E37" s="5">
         <v>2018</v>
@@ -3075,26 +2994,30 @@
         <v>19</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E38" s="5">
         <v>2016</v>
@@ -3103,26 +3026,30 @@
         <v>18</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E39" s="5">
         <v>2020</v>
@@ -3131,26 +3058,30 @@
         <v>16</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E40" s="5">
         <v>2020</v>
@@ -3159,26 +3090,30 @@
         <v>16</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E41" s="5">
         <v>2019</v>
@@ -3187,26 +3122,30 @@
         <v>16</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E42" s="5">
         <v>2020</v>
@@ -3215,23 +3154,27 @@
         <v>21</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>25</v>
@@ -3240,197 +3183,225 @@
         <v>2019</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E44" s="12">
         <v>2019</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>55</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="E45" s="5">
         <v>2016</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>183</v>
+        <v>340</v>
       </c>
       <c r="E46" s="5">
         <v>2020</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>57</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E47" s="5">
         <v>2020</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>58</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E48" s="5">
         <v>2020</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>59</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E49" s="5">
         <v>2019</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="E50" s="5">
         <v>2016</v>
@@ -3439,138 +3410,158 @@
         <v>20</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>61</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E51" s="5">
         <v>2013</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>62</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="E52" s="5">
         <v>2019</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>63</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E53" s="5">
         <v>2019</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>64</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E54" s="5">
         <v>2011</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>65</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E55" s="5">
         <v>2016</v>
@@ -3579,138 +3570,158 @@
         <v>20</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>66</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E56" s="5">
         <v>2020</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>67</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E57" s="5">
         <v>2013</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>68</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E58" s="5">
         <v>2010</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>69</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E59" s="5">
         <v>2020</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E60" s="5">
         <v>2020</v>
@@ -3719,110 +3730,126 @@
         <v>16</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E61" s="5">
         <v>2020</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>72</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E62" s="5">
         <v>2003</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>73</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E63" s="5">
         <v>2020</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>74</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E64" s="5">
         <v>2019</v>
@@ -3831,15 +3858,19 @@
         <v>23</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-    </row>
-    <row r="65" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
       <c r="C65" s="13"/>
       <c r="D65" s="15"/>
@@ -3849,7 +3880,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="12"/>
     </row>
-    <row r="66" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="13"/>
       <c r="D66" s="15"/>
@@ -3859,7 +3890,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="12"/>
     </row>
-    <row r="67" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67" s="13"/>
       <c r="D67" s="15"/>
@@ -3869,185 +3900,142 @@
       <c r="H67" s="8"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="9"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="12"/>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H68" s="12"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="73" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="9"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C73" s="11"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="9"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C74" s="6"/>
       <c r="D74" s="13"/>
       <c r="E74" s="5"/>
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="9"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C75" s="11"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5"/>
       <c r="F75" s="11"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="9"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C76" s="11"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5"/>
       <c r="F76" s="11"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="9"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C77" s="6"/>
       <c r="D77" s="13"/>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="9"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C78" s="6"/>
       <c r="D78" s="13"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="9"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C79" s="6"/>
       <c r="D79" s="13"/>
       <c r="E79" s="5"/>
       <c r="F79" s="13"/>
       <c r="G79" s="7"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="9"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C80" s="6"/>
       <c r="D80" s="13"/>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="9"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C81" s="6"/>
       <c r="D81" s="13"/>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="9"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C82" s="6"/>
       <c r="D82" s="13"/>
       <c r="E82" s="5"/>
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="9"/>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C83" s="6"/>
       <c r="D83" s="13"/>
       <c r="E83" s="5"/>
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="9"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C84" s="6"/>
       <c r="D84" s="13"/>
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="9"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C85" s="6"/>
       <c r="D85" s="13"/>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="9"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C86" s="6"/>
       <c r="D86" s="13"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="9"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="9"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="9"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I67">
